--- a/opinions/parsed_wiki_data/2016.xlsx
+++ b/opinions/parsed_wiki_data/2016.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,6 @@
           <t>gorsuch</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>gorsuch not yet appointed</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -530,8 +525,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -581,8 +575,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -632,8 +625,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -683,8 +675,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -734,8 +725,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -785,8 +775,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -836,8 +825,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -887,8 +875,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -938,8 +925,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -989,8 +975,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -1040,8 +1025,7 @@
           <t>majority</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -1091,8 +1075,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -1142,8 +1125,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -1193,8 +1175,7 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -1244,8 +1225,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -1295,8 +1275,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -1346,8 +1325,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -1397,8 +1375,7 @@
           <t>majority</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -1448,8 +1425,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -1499,8 +1475,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -1550,8 +1525,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -1601,8 +1575,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -1652,8 +1625,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -1703,8 +1675,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -1754,8 +1725,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>didnotparticipate</t>
         </is>
@@ -1810,7 +1780,6 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1861,7 +1830,6 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1912,7 +1880,6 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1963,7 +1930,6 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2014,7 +1980,6 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2065,7 +2030,6 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2116,7 +2080,6 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2167,7 +2130,6 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2218,7 +2180,6 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2269,7 +2230,6 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2320,7 +2280,6 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2371,7 +2330,6 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2422,7 +2380,6 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2473,7 +2430,6 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2524,7 +2480,6 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2575,7 +2530,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2626,7 +2580,6 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2677,7 +2630,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2728,7 +2680,6 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2779,7 +2730,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2830,7 +2780,6 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2881,7 +2830,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2932,7 +2880,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2983,7 +2930,6 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3034,7 +2980,6 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3085,7 +3030,6 @@
           <t>majority</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3108,7 +3052,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve">concurrence </t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3136,7 +3080,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3187,7 +3130,6 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3238,7 +3180,6 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3289,7 +3230,6 @@
           <t>joindissent</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3340,7 +3280,6 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3391,7 +3330,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3442,7 +3380,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3493,7 +3430,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3544,7 +3480,6 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3595,7 +3530,6 @@
           <t>concurrence2</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3646,7 +3580,6 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3697,7 +3630,6 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3748,7 +3680,6 @@
           <t>dissent</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3799,7 +3730,6 @@
           <t>partjoinmajority</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3850,7 +3780,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3901,7 +3830,6 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3952,7 +3880,6 @@
           <t>didnotparticipate</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4003,7 +3930,6 @@
           <t>dissent</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opinions/parsed_wiki_data/2016.xlsx
+++ b/opinions/parsed_wiki_data/2016.xlsx
@@ -487,42 +487,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -537,17 +537,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -557,22 +557,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -597,32 +597,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -637,27 +637,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -687,32 +687,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -737,22 +737,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -762,17 +762,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -787,42 +787,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -837,32 +837,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -902,27 +902,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -942,27 +942,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -987,27 +987,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1047,17 +1047,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>concurrencedissent</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1067,12 +1067,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1097,32 +1097,32 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1152,22 +1152,22 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>concurrence3</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1187,42 +1187,42 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1242,27 +1242,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1287,22 +1287,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1317,12 +1317,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1337,37 +1337,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1392,37 +1392,37 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1437,12 +1437,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1462,17 +1462,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1487,12 +1487,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1512,17 +1512,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1542,12 +1542,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1557,22 +1557,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1592,37 +1592,37 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>joinconcurrence2</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1642,37 +1642,37 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1687,32 +1687,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>concurrencedissent</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1737,17 +1737,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1757,22 +1757,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1787,37 +1787,37 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1837,12 +1837,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1857,22 +1857,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1887,12 +1887,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1917,12 +1917,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1937,32 +1937,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1987,22 +1987,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2012,17 +2012,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2037,22 +2037,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>concurrencedissent</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2062,17 +2062,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2087,12 +2087,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2112,17 +2112,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2137,22 +2137,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2187,12 +2187,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2202,22 +2202,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2237,12 +2237,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2252,27 +2252,27 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2287,27 +2287,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2317,12 +2317,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2337,37 +2337,37 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>concurrencedissent</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2392,37 +2392,37 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>concurrencedissent</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2452,27 +2452,27 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2487,17 +2487,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2507,27 +2507,27 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>concurrencedissent</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2537,27 +2537,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2587,27 +2587,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2617,17 +2617,17 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2637,32 +2637,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2687,32 +2687,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2722,12 +2722,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2737,37 +2737,37 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2787,47 +2787,47 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2837,12 +2837,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2852,32 +2852,32 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2887,12 +2887,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2907,22 +2907,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2957,22 +2957,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2987,42 +2987,42 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3037,17 +3037,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3057,27 +3057,27 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3097,17 +3097,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3117,12 +3117,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3147,12 +3147,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3187,22 +3187,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3217,17 +3217,17 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -3237,27 +3237,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3267,12 +3267,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3287,27 +3287,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3322,12 +3322,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3337,47 +3337,47 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3397,12 +3397,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3412,22 +3412,22 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -3437,22 +3437,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3462,12 +3462,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3487,37 +3487,37 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>joinconcurrence2</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
     </row>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3552,27 +3552,27 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>partjoindissent</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3597,32 +3597,32 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3637,17 +3637,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3657,22 +3657,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3692,27 +3692,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3722,12 +3722,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3757,27 +3757,27 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3787,12 +3787,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3812,22 +3812,22 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3837,42 +3837,42 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3887,42 +3887,42 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">

--- a/opinions/parsed_wiki_data/2016.xlsx
+++ b/opinions/parsed_wiki_data/2016.xlsx
@@ -487,42 +487,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -537,17 +537,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -557,22 +557,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -597,32 +597,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -637,27 +637,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -687,32 +687,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -737,22 +737,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -762,17 +762,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -787,42 +787,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -837,32 +837,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -917,12 +917,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -942,27 +942,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -987,12 +987,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1002,12 +1002,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1047,17 +1047,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1067,12 +1067,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1102,12 +1102,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1117,12 +1117,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1157,12 +1157,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1187,42 +1187,42 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1242,12 +1242,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1257,12 +1257,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1287,22 +1287,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1317,12 +1317,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1352,12 +1352,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1392,37 +1392,37 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1462,17 +1462,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1487,12 +1487,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1517,12 +1517,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1567,12 +1567,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1592,17 +1592,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1642,37 +1642,37 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1687,32 +1687,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1737,17 +1737,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1757,22 +1757,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1787,37 +1787,37 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1837,12 +1837,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1857,12 +1857,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1887,12 +1887,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1917,12 +1917,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1957,12 +1957,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1987,22 +1987,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2012,17 +2012,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2037,22 +2037,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2062,17 +2062,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2087,12 +2087,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2112,17 +2112,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2137,17 +2137,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2187,12 +2187,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2202,22 +2202,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2237,12 +2237,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2252,27 +2252,27 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2287,27 +2287,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2317,12 +2317,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2337,37 +2337,37 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2392,37 +2392,37 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2452,27 +2452,27 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2487,17 +2487,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2507,27 +2507,27 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2537,27 +2537,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2587,27 +2587,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2617,17 +2617,17 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2637,32 +2637,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2687,32 +2687,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2722,12 +2722,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2737,37 +2737,37 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2787,47 +2787,47 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2837,12 +2837,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2852,32 +2852,32 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2917,12 +2917,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2967,12 +2967,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2987,42 +2987,42 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3037,17 +3037,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3057,27 +3057,27 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3102,12 +3102,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3117,12 +3117,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3217,12 +3217,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3237,27 +3237,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3267,12 +3267,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3287,27 +3287,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3322,12 +3322,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3337,47 +3337,47 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3397,12 +3397,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3427,7 +3427,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3437,17 +3437,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3462,12 +3462,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3502,12 +3502,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3542,7 +3542,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3552,27 +3552,27 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3602,12 +3602,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3617,12 +3617,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3637,12 +3637,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3657,22 +3657,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3692,12 +3692,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3712,7 +3712,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3722,12 +3722,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3777,7 +3777,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3787,12 +3787,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3812,7 +3812,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3837,12 +3837,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3862,17 +3862,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3887,12 +3887,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3902,12 +3902,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3917,12 +3917,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
